--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -1,37 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317277D-16A9-4089-A274-6C6B50B47349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+  <si>
+    <t>Saat 09:00-10:00</t>
+  </si>
+  <si>
+    <t>Saat 10:00-11:00</t>
+  </si>
+  <si>
+    <t>Saat 11:00-12:00</t>
+  </si>
+  <si>
+    <t>Saat 13:00-14:00</t>
+  </si>
+  <si>
+    <t>Saat 14:00-15:00</t>
+  </si>
+  <si>
+    <t>Saat 15:00-16:00</t>
+  </si>
+  <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>Derslik 7: Karar Analizi (3. Sınıf, Dr. Ömer Kaplan)</t>
+  </si>
+  <si>
+    <t>Derslik 22: Mikro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
+  </si>
+  <si>
+    <t>Derslik 12: Pazar Araştırması (4. Sınıf, Öğr. Gör. Gülhan Işık)</t>
+  </si>
+  <si>
+    <t>Derslik 2: İşletme Matematiği (1. Sınıf, Prof. Dr. Ayşe Demir)</t>
+  </si>
+  <si>
+    <t>Derslik 2: Davranışsal Finans (4. Sınıf, Dr. Cem Yıldız)
+Derslik 6: İş Hukuku (2. Sınıf, Öğr. Gör. Hasan Tunç)</t>
+  </si>
+  <si>
+    <t>Derslik 22: Stratejik Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+  </si>
+  <si>
+    <t>Salı</t>
+  </si>
+  <si>
+    <t>Derslik 8: Üretim Yönetimi (2. Sınıf, Dr. Ahmet Şahin)</t>
+  </si>
+  <si>
+    <t>Derslik 12: Finansal Yönetim (2. Sınıf, Dr. Cem Yıldız)</t>
+  </si>
+  <si>
+    <t>Derslik 9: Perakende Yönetimi (4. Sınıf, Dr. Ömer Kaplan)</t>
+  </si>
+  <si>
+    <t>Derslik 17: Yönetim Bilişim Sistemleri (4. Sınıf, Dr. Fırat Demir)
+Derslik 3: Kalite Yönetimi (3. Sınıf, Dr. Ahmet Şahin)</t>
+  </si>
+  <si>
+    <t>Derslik 23: Sosyal Medya Pazarlama (4. Sınıf, Öğr. Gör. Berna Aydın)</t>
+  </si>
+  <si>
+    <t>Derslik 9: İnovasyon Yönetimi (4. Sınıf, Dr. Murat Polat)</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>Derslik 1: Lojistik Yönetimi (3. Sınıf, Öğr. Gör. Gülhan Işık)</t>
+  </si>
+  <si>
+    <t>Derslik 14: Girişimcilik (3. Sınıf, Öğr. Gör. Elif Öz)
+Derslik 18: Satınalma Yönetimi (4. Sınıf, Dr. Bora Koç)</t>
+  </si>
+  <si>
+    <t>Derslik 17: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+  </si>
+  <si>
+    <t>Derslik 16: Proje Yönetimi (3. Sınıf, Dr. Sibel Uslu)
+Derslik 17: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+  </si>
+  <si>
+    <t>Derslik 15: Ücretlendirme Yönetimi (4. Sınıf, Dr. Fırat Demir)</t>
+  </si>
+  <si>
+    <t>Derslik 18: İktisada Giriş (1. Sınıf, Prof. Dr. Ahmet Yılmaz)
+Derslik 19: İş Etiği (3. Sınıf, Doç. Dr. Cem Aksoy)</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>Derslik 17: Müşteri İlişkileri Yönetimi (4. Sınıf, Öğr. Gör. Berna Aydın)
+Derslik 3: E-Ticaret (3. Sınıf, Dr. Sibel Uslu)</t>
+  </si>
+  <si>
+    <t>Derslik 13: Araştırma Yöntemleri (3. Sınıf, Öğr. Gör. Elif Öz)
+Derslik 9: Örgütsel Davranış (1. Sınıf, Öğr. Gör. Hasan Tunç)</t>
+  </si>
+  <si>
+    <t>Derslik 2: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+  </si>
+  <si>
+    <t>Derslik 23: Makro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
+  </si>
+  <si>
+    <t>Derslik 13: Organizasyon Teorisi (4. Sınıf, Dr. Ayça Öz)</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>Derslik 12: Küresel Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+  </si>
+  <si>
+    <t>Derslik 1: Yönetim Muhasebesi (3. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+  </si>
+  <si>
+    <t>Derslik 19: Uluslararası İşletme (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
+  </si>
+  <si>
+    <t>Derslik 8: Risk Yönetimi (4. Sınıf, Doç. Dr. Cem Aksoy)</t>
+  </si>
+  <si>
+    <t>Derslik 11: Kültürel Yönetim (4. Sınıf, Dr. Ayça Öz)
+Derslik 6: Stratejik Yönetim (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
+  </si>
+  <si>
+    <t>Derslik 3: Pazarlama Yönetimi (2. Sınıf, Dr. Deniz Koç)
+Derslik 22: Kalite Kontrol Teknikleri (4. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +186,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,166 +510,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="98.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Saat 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Saat 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Saat 3</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Pazartesi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Derslik 14: Kalite Yönetimi (Dr. Ahmet Şahin)
-Derslik 5: Stratejik Pazarlama (Doç. Dr. Levent Ersoy)
-Derslik 8: İş Etiği (Doç. Dr. Cem Aksoy)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Derslik 1: Ücretlendirme Yönetimi (Dr. Fırat Demir)
-Derslik 22: İktisada Giriş (Prof. Dr. Ahmet Yılmaz)
-Derslik 18: Proje Yönetimi (Dr. Sibel Uslu)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Derslik 1: Muhasebe II (Doç. Dr. Mehmet Kaya)
-Derslik 9: Kalite Kontrol Teknikleri (Prof. Dr. Zeynep Çelik)</t>
-        </is>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Salı</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Derslik 12: İnovasyon Yönetimi (Dr. Deniz Koç)
-Derslik 9: Stratejik Yönetim (Doç. Dr. Zeynep Arslan)
-Derslik 24: Lojistik Yönetimi (Dr. Bora Koç)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Derslik 3: Araştırma Yöntemleri (Öğr. Gör. Elif Öz)
-Derslik 4: Pazar Araştırması (Öğr. Gör. Gülhan Işık)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Derslik 3: Yönetim Bilişim Sistemleri (Dr. Fırat Demir)
-Derslik 15: Kültürel Yönetim (Dr. Ayça Öz)
-Derslik 8: Yönetim Muhasebesi (Prof. Dr. Zeynep Çelik)</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Çarşamba</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Derslik 1: Sosyal Medya Pazarlama (Öğr. Gör. Berna Aydın)
-Derslik 11: Pazarlama Yönetimi (Prof. Dr. Ahmet Yılmaz)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Derslik 15: Üretim Yönetimi (Dr. Ahmet Şahin)
-Derslik 18: Mikro İktisat (Prof. Dr. Ayşe Demir)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Derslik 21: Makro İktisat (Prof. Dr. Ayşe Demir)
-Derslik 15: Girişimcilik (Öğr. Gör. Elif Öz)</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Perşembe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Derslik 14: Uluslararası İşletme (Doç. Dr. Zeynep Arslan)
-Derslik 1: E-Ticaret (Dr. Murat Polat)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Derslik 9: Küresel Pazarlama (Doç. Dr. Levent Ersoy)
-Derslik 18: İş Hukuku (Öğr. Gör. Hasan Tunç)
-Derslik 15: Satınalma Yönetimi (Dr. Bora Koç)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Derslik 6: Risk Yönetimi (Doç. Dr. Cem Aksoy)
-Derslik 8: İşletme Matematiği (Prof. Dr. Ayşe Demir)
-Derslik 12: Müşteri İlişkileri Yönetimi (Öğr. Gör. Berna Aydın)</t>
-        </is>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Cuma</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Derslik 8: Perakende Yönetimi (Dr. Ömer Kaplan)
-Derslik 17: Muhasebe I (Doç. Dr. Mehmet Kaya)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Derslik 5: Finansal Yönetim (Doç. Dr. Mehmet Kaya)
-Derslik 3: Karar Analizi (Dr. Ömer Kaplan)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Derslik 8: Örgütsel Davranış (Öğr. Gör. Hasan Tunç)
-Derslik 15: Davranışsal Finans (Dr. Cem Yıldız)
-Derslik 24: Organizasyon Teorisi (Dr. Ayça Öz)</t>
-        </is>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -1,177 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EFE\PycharmProjects\DersTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1317277D-16A9-4089-A274-6C6B50B47349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
-  <si>
-    <t>Saat 09:00-10:00</t>
-  </si>
-  <si>
-    <t>Saat 10:00-11:00</t>
-  </si>
-  <si>
-    <t>Saat 11:00-12:00</t>
-  </si>
-  <si>
-    <t>Saat 13:00-14:00</t>
-  </si>
-  <si>
-    <t>Saat 14:00-15:00</t>
-  </si>
-  <si>
-    <t>Saat 15:00-16:00</t>
-  </si>
-  <si>
-    <t>Pazartesi</t>
-  </si>
-  <si>
-    <t>Derslik 7: Karar Analizi (3. Sınıf, Dr. Ömer Kaplan)</t>
-  </si>
-  <si>
-    <t>Derslik 22: Mikro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
-  </si>
-  <si>
-    <t>Derslik 12: Pazar Araştırması (4. Sınıf, Öğr. Gör. Gülhan Işık)</t>
-  </si>
-  <si>
-    <t>Derslik 2: İşletme Matematiği (1. Sınıf, Prof. Dr. Ayşe Demir)</t>
-  </si>
-  <si>
-    <t>Derslik 2: Davranışsal Finans (4. Sınıf, Dr. Cem Yıldız)
-Derslik 6: İş Hukuku (2. Sınıf, Öğr. Gör. Hasan Tunç)</t>
-  </si>
-  <si>
-    <t>Derslik 22: Stratejik Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
-  </si>
-  <si>
-    <t>Salı</t>
-  </si>
-  <si>
-    <t>Derslik 8: Üretim Yönetimi (2. Sınıf, Dr. Ahmet Şahin)</t>
-  </si>
-  <si>
-    <t>Derslik 12: Finansal Yönetim (2. Sınıf, Dr. Cem Yıldız)</t>
-  </si>
-  <si>
-    <t>Derslik 9: Perakende Yönetimi (4. Sınıf, Dr. Ömer Kaplan)</t>
-  </si>
-  <si>
-    <t>Derslik 17: Yönetim Bilişim Sistemleri (4. Sınıf, Dr. Fırat Demir)
-Derslik 3: Kalite Yönetimi (3. Sınıf, Dr. Ahmet Şahin)</t>
-  </si>
-  <si>
-    <t>Derslik 23: Sosyal Medya Pazarlama (4. Sınıf, Öğr. Gör. Berna Aydın)</t>
-  </si>
-  <si>
-    <t>Derslik 9: İnovasyon Yönetimi (4. Sınıf, Dr. Murat Polat)</t>
-  </si>
-  <si>
-    <t>Çarşamba</t>
-  </si>
-  <si>
-    <t>Derslik 1: Lojistik Yönetimi (3. Sınıf, Öğr. Gör. Gülhan Işık)</t>
-  </si>
-  <si>
-    <t>Derslik 14: Girişimcilik (3. Sınıf, Öğr. Gör. Elif Öz)
-Derslik 18: Satınalma Yönetimi (4. Sınıf, Dr. Bora Koç)</t>
-  </si>
-  <si>
-    <t>Derslik 17: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
-  </si>
-  <si>
-    <t>Derslik 16: Proje Yönetimi (3. Sınıf, Dr. Sibel Uslu)
-Derslik 17: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
-  </si>
-  <si>
-    <t>Derslik 15: Ücretlendirme Yönetimi (4. Sınıf, Dr. Fırat Demir)</t>
-  </si>
-  <si>
-    <t>Derslik 18: İktisada Giriş (1. Sınıf, Prof. Dr. Ahmet Yılmaz)
-Derslik 19: İş Etiği (3. Sınıf, Doç. Dr. Cem Aksoy)</t>
-  </si>
-  <si>
-    <t>Perşembe</t>
-  </si>
-  <si>
-    <t>Derslik 17: Müşteri İlişkileri Yönetimi (4. Sınıf, Öğr. Gör. Berna Aydın)
-Derslik 3: E-Ticaret (3. Sınıf, Dr. Sibel Uslu)</t>
-  </si>
-  <si>
-    <t>Derslik 13: Araştırma Yöntemleri (3. Sınıf, Öğr. Gör. Elif Öz)
-Derslik 9: Örgütsel Davranış (1. Sınıf, Öğr. Gör. Hasan Tunç)</t>
-  </si>
-  <si>
-    <t>Derslik 2: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
-  </si>
-  <si>
-    <t>Derslik 23: Makro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
-  </si>
-  <si>
-    <t>Derslik 13: Organizasyon Teorisi (4. Sınıf, Dr. Ayça Öz)</t>
-  </si>
-  <si>
-    <t>Cuma</t>
-  </si>
-  <si>
-    <t>Derslik 12: Küresel Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
-  </si>
-  <si>
-    <t>Derslik 1: Yönetim Muhasebesi (3. Sınıf, Prof. Dr. Zeynep Çelik)</t>
-  </si>
-  <si>
-    <t>Derslik 19: Uluslararası İşletme (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
-  </si>
-  <si>
-    <t>Derslik 8: Risk Yönetimi (4. Sınıf, Doç. Dr. Cem Aksoy)</t>
-  </si>
-  <si>
-    <t>Derslik 11: Kültürel Yönetim (4. Sınıf, Dr. Ayça Öz)
-Derslik 6: Stratejik Yönetim (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
-  </si>
-  <si>
-    <t>Derslik 3: Pazarlama Yönetimi (2. Sınıf, Dr. Deniz Koç)
-Derslik 22: Kalite Kontrol Teknikleri (4. Sınıf, Prof. Dr. Zeynep Çelik)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -186,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -510,157 +420,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="98.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 09:00-10:00</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 10:00-11:00</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 11:00-12:00</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 13:00-14:00</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 14:00-15:00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Saat 15:00-16:00</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Pazartesi</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Derslik 24: Davranışsal Finans (4. Sınıf, Dr. Cem Yıldız)
+Derslik 8: Kalite Yönetimi (3. Sınıf, Dr. Ahmet Şahin)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Derslik 20: E-Ticaret (3. Sınıf, Dr. Sibel Uslu)
+Derslik 19: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Derslik 6: Üretim Yönetimi (2. Sınıf, Dr. Ahmet Şahin)
+Derslik 19: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Derslik 13: Mikro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Derslik 19: İş Hukuku (2. Sınıf, Öğr. Gör. Hasan Tunç)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Derslik 16: Girişimcilik (3. Sınıf, Öğr. Gör. Elif Öz)</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Salı</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Derslik 20: Ücretlendirme Yönetimi (4. Sınıf, Dr. Fırat Demir)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Derslik 11: Kalite Kontrol Teknikleri (4. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Derslik 7: Müşteri İlişkileri Yönetimi (4. Sınıf, Öğr. Gör. Berna Aydın)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Derslik 17: Organizasyon Teorisi (4. Sınıf, Dr. Ayça Öz)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Derslik 14: Makro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)
+Derslik 22: Satınalma Yönetimi (4. Sınıf, Dr. Bora Koç)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Derslik 5: Karar Analizi (3. Sınıf, Dr. Ömer Kaplan)</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Çarşamba</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Derslik 5: Yönetim Bilişim Sistemleri (4. Sınıf, Dr. Fırat Demir)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Derslik 21: İş Etiği (3. Sınıf, Doç. Dr. Cem Aksoy)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Derslik 19: Proje Yönetimi (3. Sınıf, Dr. Sibel Uslu)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Derslik 10: İktisada Giriş (1. Sınıf, Prof. Dr. Haydar Yalçın)
+Derslik 24: Lojistik Yönetimi (3. Sınıf, Dr. Bora Koç)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Derslik 23: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Derslik 23: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Perşembe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Derslik 2: Perakende Yönetimi (4. Sınıf, Dr. Ömer Kaplan)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Derslik 16: Stratejik Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Derslik 17: Uluslararası İşletme (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Derslik 23: Risk Yönetimi (4. Sınıf, Doç. Dr. Cem Aksoy)
+Derslik 12: Stratejik Yönetim (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Derslik 19: Pazar Araştırması (4. Sınıf, Öğr. Gör. Gülhan Işık)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Derslik 18: Sosyal Medya Pazarlama (4. Sınıf, Öğr. Gör. Berna Aydın)
+Derslik 4: İşletme Matematiği (1. Sınıf, Prof. Dr. Ayşe Demir)</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Cuma</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Derslik 7: Yönetim Muhasebesi (3. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Derslik 3: Finansal Yönetim (2. Sınıf, Doç. Dr. Mehmet Kaya)
+Derslik 9: Örgütsel Davranış (1. Sınıf, Öğr. Gör. Hasan Tunç)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Derslik 4: Küresel Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Derslik 12: Pazarlama Yönetimi (2. Sınıf, Dr. Deniz Koç)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Derslik 4: İnovasyon Yönetimi (4. Sınıf, Dr. Deniz Koç)
+Derslik 12: Araştırma Yöntemleri (3. Sınıf, Öğr. Gör. Elif Öz)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Derslik 18: Kültürel Yönetim (4. Sınıf, Dr. Ayça Öz)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Saat 09:00-10:00</t>
+          <t>Saat 09:00-12:00</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Saat 10:00-11:00</t>
+          <t>Saat 13:00-16:00</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Saat 11:00-12:00</t>
+          <t>Saat 16:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Saat 13:00-14:00</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Saat 14:00-15:00</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Saat 15:00-16:00</t>
+          <t>Saat 19:00-21:00</t>
         </is>
       </c>
     </row>
@@ -473,35 +463,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Derslik 24: Davranışsal Finans (4. Sınıf, Dr. Cem Yıldız)
-Derslik 8: Kalite Yönetimi (3. Sınıf, Dr. Ahmet Şahin)</t>
+          <t>Derslik 109: Vestel İşletmecilik Seminerleri I (4. Sınıf, Prof. Dr. G. Nazan GÜNAY)
+Derslik 108: Teknoloji ve Sanayi Dinamikleri (3. Sınıf, Prof. Dr. Haluk SOYUER)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Derslik 20: E-Ticaret (3. Sınıf, Dr. Sibel Uslu)
-Derslik 19: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+          <t>Derslik 103: Sürdürülebilir Pazarlama (3. Sınıf, Prof. Dr. İpek KAZANÇOĞLU)
+Derslik 203: Muhasebe I (2. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 202: Türk Dili I (1. Sınıf, Öğretmen 4)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derslik 6: Üretim Yönetimi (2. Sınıf, Dr. Ahmet Şahin)
-Derslik 19: Muhasebe I (1. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+          <t>Derslik 104: Sosyoloji (1. Sınıf, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
+Derslik 210: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf, Prof. Dr. Türker SUSMUŞ)
+Derslik 204: İstatistik I (2. Sınıf, Doç. Dr. İnanç KABASAKAL)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Derslik 13: Mikro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Derslik 19: İş Hukuku (2. Sınıf, Öğr. Gör. Hasan Tunç)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Derslik 16: Girişimcilik (3. Sınıf, Öğr. Gör. Elif Öz)</t>
+          <t>Derslik 205: Hukukun Temel Kavramları (Örgün + İ.Ö.) (0. Sınıf, Dr. Öğr. Üyesi Sema AYDIN)
+Derslik 104: Borçlar Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)</t>
         </is>
       </c>
     </row>
@@ -513,33 +496,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Derslik 20: Ücretlendirme Yönetimi (4. Sınıf, Dr. Fırat Demir)</t>
+          <t>Derslik 211: İşletme Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
+Derslik 109: Kariyer Planlama (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Derslik 11: Kalite Kontrol Teknikleri (4. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+          <t>Derslik 303: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 211: Ticaret Hukuku (Tasfiye) (0. Sınıf, Dr. Öğr. Üyesi Sema AYDIN)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derslik 7: Müşteri İlişkileri Yönetimi (4. Sınıf, Öğr. Gör. Berna Aydın)</t>
+          <t>Derslik 205: Yönetim Geliştirme (3. Sınıf, Prof. Dr. Derya İLİC)
+Derslik 103: Global Marketing (Tek) (4. Sınıf, Prof. Dr. Aykan CANDEMİR)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Derslik 17: Organizasyon Teorisi (4. Sınıf, Dr. Ayça Öz)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Derslik 14: Makro İktisat (2. Sınıf, Prof. Dr. Ayşe Demir)
-Derslik 22: Satınalma Yönetimi (4. Sınıf, Dr. Bora Koç)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Derslik 5: Karar Analizi (3. Sınıf, Dr. Ömer Kaplan)</t>
+          <t>Derslik 103: Reklamcılık Yönetimi (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
+Derslik 210: Matematik-I (Çift) (1. Sınıf, Öğretmen 2)</t>
         </is>
       </c>
     </row>
@@ -551,33 +527,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Derslik 5: Yönetim Bilişim Sistemleri (4. Sınıf, Dr. Fırat Demir)</t>
+          <t>Derslik 205: Retailing I (4. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
+Derslik 202: Yatırım Yönetimi (3. Sınıf, Araş. Gör. Dr. Özgür BABACAN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Derslik 21: İş Etiği (3. Sınıf, Doç. Dr. Cem Aksoy)</t>
+          <t>Derslik 103: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf, Doç. Dr. Aydın KOÇAK)
+Derslik 104: Muhasebe II (Tasfiye) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derslik 19: Proje Yönetimi (3. Sınıf, Dr. Sibel Uslu)</t>
+          <t>Derslik 209: Financial Management I (3. Sınıf, Prof. Dr. Dilek DEMİRHAN)
+Derslik 202: Organizational Behavior (Tek) (2. Sınıf, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Derslik 10: İktisada Giriş (1. Sınıf, Prof. Dr. Haydar Yalçın)
-Derslik 24: Lojistik Yönetimi (3. Sınıf, Dr. Bora Koç)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Derslik 23: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Derslik 23: Muhasebe II (2. Sınıf, Doç. Dr. Mehmet Kaya)</t>
+          <t>Derslik 108: İşletmeye Giriş (0. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 111: Mali Tablolar Analizi (4. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
+Derslik 104: Girişimcilik ve KOBİ Yönetimi (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
         </is>
       </c>
     </row>
@@ -589,34 +559,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Derslik 2: Perakende Yönetimi (4. Sınıf, Dr. Ömer Kaplan)</t>
+          <t>Derslik 110: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)
+Derslik 208: Introduction to Microeconomics (1. Sınıf, Öğretmen 3)
+Derslik 102: Araştırma Yöntemleri (Çift) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Derslik 16: Stratejik Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+          <t>Derslik 203: Operations Research I (3. Sınıf, Prof. Dr. Murat KOCAMAZ)
+Derslik 104: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Derslik 17: Uluslararası İşletme (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
+          <t>Derslik 104: Global Marketing (Çift) (4. Sınıf, Prof. Dr. Keti VENTURA)
+Derslik 205: Consumer Behavior (Çift) (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
+Derslik 209: Yönetim Muhasebesi (3. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Derslik 23: Risk Yönetimi (4. Sınıf, Doç. Dr. Cem Aksoy)
-Derslik 12: Stratejik Yönetim (3. Sınıf, Doç. Dr. Zeynep Arslan)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Derslik 19: Pazar Araştırması (4. Sınıf, Öğr. Gör. Gülhan Işık)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Derslik 18: Sosyal Medya Pazarlama (4. Sınıf, Öğr. Gör. Berna Aydın)
-Derslik 4: İşletme Matematiği (1. Sınıf, Prof. Dr. Ayşe Demir)</t>
+          <t>Derslik 111: Matematik-I (Tek) (1. Sınıf, Öğretmen 1)
+Derslik 205: Business I (Tasfiye) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
+Derslik 109: Araştırma Yöntemleri (Tek) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
         </is>
       </c>
     </row>
@@ -628,34 +593,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Derslik 7: Yönetim Muhasebesi (3. Sınıf, Prof. Dr. Zeynep Çelik)</t>
+          <t>Derslik 111: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf, Öğretmen 5)
+Derslik 110: Marketing Management I (2. Sınıf, Prof. Dr. G. Nazan GÜNAY)
+Derslik 201: Human Resources Management (4. Sınıf, Prof. Dr. Burak ÇAPRAZ)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Derslik 3: Finansal Yönetim (2. Sınıf, Doç. Dr. Mehmet Kaya)
-Derslik 9: Örgütsel Davranış (1. Sınıf, Öğr. Gör. Hasan Tunç)</t>
+          <t>Derslik 103: Consumer Behavior (Tek) (3. Sınıf, Prof. Dr. Ayla Özhan DEDEOĞLU)
+Derslik 109: Business (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
+Derslik 204: Bilgi Yönetimi (3. Sınıf, Doç. Dr. İnanç KABASAKAL)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derslik 4: Küresel Pazarlama (4. Sınıf, Doç. Dr. Levent Ersoy)</t>
+          <t>Derslik 201: Operations Management I (2. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 104: System Analysis and Design (4. Sınıf, Doç. Dr. U. Gökay ÇİÇEKLİ)
+Derslik 210: Enformetri (3. Sınıf, Doç. Dr. Haydar YALÇIN)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Derslik 12: Pazarlama Yönetimi (2. Sınıf, Dr. Deniz Koç)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Derslik 4: İnovasyon Yönetimi (4. Sınıf, Dr. Deniz Koç)
-Derslik 12: Araştırma Yöntemleri (3. Sınıf, Öğr. Gör. Elif Öz)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Derslik 18: Kültürel Yönetim (4. Sınıf, Dr. Ayça Öz)</t>
+          <t>Derslik 101: Management Consultancy (3. Sınıf, Prof. Dr. Derya İLİC)
+Derslik 104: Organizational Behavior (Çift) (2. Sınıf, Dr. Öğr. Üyesi Hakan ERKAL)
+Derslik 301: Introduction to Business (Örgün + İ.Ö) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)</t>
         </is>
       </c>
     </row>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -436,22 +436,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Saat 09:00-12:00</t>
+          <t>09:00-12:00</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Saat 13:00-16:00</t>
+          <t>13:00-16:00</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Saat 16:00-19:00</t>
+          <t>16:00-19:00</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Saat 19:00-21:00</t>
+          <t>19:00-21:00</t>
         </is>
       </c>
     </row>
@@ -463,28 +463,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Derslik 109: Vestel İşletmecilik Seminerleri I (4. Sınıf, Prof. Dr. G. Nazan GÜNAY)
-Derslik 108: Teknoloji ve Sanayi Dinamikleri (3. Sınıf, Prof. Dr. Haluk SOYUER)</t>
+          <t>Derslik 101: Muhasebe I (2. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 102: İnsan Kaynakları Yönetimi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
+Derslik 103: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
+Derslik 105: Stratejik Yatırım Kararları ve Planlama (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 104: Sürdürülebilir Pazarlama (3. Sınıf, Prof. Dr. İpek KAZANÇOĞLU)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Derslik 103: Sürdürülebilir Pazarlama (3. Sınıf, Prof. Dr. İpek KAZANÇOĞLU)
-Derslik 203: Muhasebe I (2. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 202: Türk Dili I (1. Sınıf, Öğretmen 4)</t>
+          <t>Derslik 101: Marketing Management I (2. Sınıf, Prof. Dr. G. Nazan GÜNAY)
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Doç. Dr. Haydar YALÇIN)
+Derslik 103: Ticaret Hukuku (İşletme İ.Ö. Tezsiz, Dr. Öğr. Üyesi Esin GÜRBÜZ)
+Derslik 104: Consumer Behavior (Tek) (3. Sınıf, Prof. Dr. Ayla Özhan DEDEOĞLU)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Derslik 104: Sosyoloji (1. Sınıf, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
-Derslik 210: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf, Prof. Dr. Türker SUSMUŞ)
-Derslik 204: İstatistik I (2. Sınıf, Doç. Dr. İnanç KABASAKAL)</t>
+          <t>Derslik 101: Sosyoloji (1. Sınıf, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
+Derslik 102: İş Analitiğinde Sayısal Yöntemler (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. İnanç KABASAKAL)
+Derslik 103: Yönetim Muhasebesi (3. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
+Derslik 104: Organizational Behavior (Tek) (2. Sınıf, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
+Derslik 105: Ağ Modelleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Murat KOCAMAZ)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Derslik 205: Hukukun Temel Kavramları (Örgün + İ.Ö.) (0. Sınıf, Dr. Öğr. Üyesi Sema AYDIN)
-Derslik 104: Borçlar Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)</t>
+          <t>Derslik 101: Tüketici Davranışları (A) (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. G. Nazan GÜNAY)
+Derslik 102: Akıllı Karar Modelleri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
+Derslik 103: Ticaret Hukuku (Tasfiye) (0. Sınıf, Doç. Dr. Sema AYDIN)
+Derslik 104: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz, Prof. Dr. Dilek DEMİRHAN)
+Derslik 105: Finansal Muhasebe (Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
     </row>
@@ -496,26 +505,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Derslik 211: İşletme Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
-Derslik 109: Kariyer Planlama (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)</t>
+          <t>Derslik 101: Yatırım Yönetimi (3. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
+Derslik 103: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Keti VENTURA)
+Derslik 104: Perakendecilik (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. İpek KAZANÇOĞLU)
+Derslik 105: Veri Odaklı Üretim Planlama Stratejileri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Murat KOCAMAZ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Derslik 303: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 211: Ticaret Hukuku (Tasfiye) (0. Sınıf, Dr. Öğr. Üyesi Sema AYDIN)</t>
+          <t>Derslik 101: Teknoloji ve Sanayi Dinamikleri (3. Sınıf, Prof. Dr. Haluk SOYUER)
+Derslik 102: System Analysis and Design (4. Sınıf, Doç. Dr. U. Gökay ÇİÇEKLİ)
+Derslik 103: Yönetim Atölyesi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Dr. Öğr. Üyesi Hakan ERKAL)
+Derslik 104: Stratejik Pazarlama Yönetimi (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. Ayla Özhan DEDEOĞLU)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derslik 205: Yönetim Geliştirme (3. Sınıf, Prof. Dr. Derya İLİC)
-Derslik 103: Global Marketing (Tek) (4. Sınıf, Prof. Dr. Aykan CANDEMİR)</t>
+          <t>Derslik 101: Malzeme ve Stok Yönetimi (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Doç. Dr. Aydın KOÇAK)
+Derslik 102: Consumer Behavior (Çift) (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
+Derslik 103: Mali Tablolar Analizi (4. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
+Derslik 104: Örgütsel Davranış (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
+Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik (Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Burcu ARACIOĞLU)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Derslik 103: Reklamcılık Yönetimi (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
-Derslik 210: Matematik-I (Çift) (1. Sınıf, Öğretmen 2)</t>
+          <t>Derslik 101: Tüketici Davranışları (B) (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. G. Nazan GÜNAY)
+Derslik 102: Araştırma Yöntemleri (Çift) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
+Derslik 103: Matematik-I (Tek) (1. Sınıf, Öğretmen 1)
+Derslik 104: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
     </row>
@@ -527,27 +546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Derslik 205: Retailing I (4. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
-Derslik 202: Yatırım Yönetimi (3. Sınıf, Araş. Gör. Dr. Özgür BABACAN)</t>
+          <t>Derslik 101: Business I (Tasfiye) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
+Derslik 102: Reklamcılık Yönetimi (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
+Derslik 103: Business (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
+Derslik 104: Kurumsal Koçluk ve Mentorluk (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
+Derslik 105: Global Marketing (Çift) (4. Sınıf, Prof. Dr. Keti VENTURA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Derslik 103: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf, Doç. Dr. Aydın KOÇAK)
-Derslik 104: Muhasebe II (Tasfiye) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
+          <t>Derslik 101: Introduction to Microeconomics (1. Sınıf, Öğretmen 3)
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Burak ÇAPRAZ)
+Derslik 103: İşletme Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
+Derslik 104: Operations Management I (2. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 105: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derslik 209: Financial Management I (3. Sınıf, Prof. Dr. Dilek DEMİRHAN)
-Derslik 202: Organizational Behavior (Tek) (2. Sınıf, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)</t>
+          <t>Derslik 101: İşletmeye Giriş (0. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
+Derslik 103: Sermaye Piyasaları ve Menkul Kıymetler Analizi (Muhasebe ve Finansman İ.Ö. Tezsiz, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
+Derslik 210: Management Consultancy (3. Sınıf, Prof. Dr. Derya İLİC)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Derslik 108: İşletmeye Giriş (0. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 111: Mali Tablolar Analizi (4. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
-Derslik 104: Girişimcilik ve KOBİ Yönetimi (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
+          <t>Derslik 101: Proje Yönetimi (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. Aydın KOÇAK)
+Derslik 102: Araştırma Yöntemleri (Tek) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
+Derslik 103: Matematik-I (Çift) (1. Sınıf, Öğretmen 2)
+Derslik 104: Stratejik Finans Yönetimi (Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Dilek DEMİRHAN)</t>
         </is>
       </c>
     </row>
@@ -559,29 +587,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Derslik 110: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)
-Derslik 208: Introduction to Microeconomics (1. Sınıf, Öğretmen 3)
-Derslik 102: Araştırma Yöntemleri (Çift) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
+          <t>Derslik 101: Introduction to Business (Örgün + İ.Ö) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
+Derslik 102: İstatistik I (2. Sınıf, Doç. Dr. İnanç KABASAKAL)
+Derslik 103: Borçlar Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
+Derslik 104: Hizmet Pazarlaması (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Aykan CANDEMİR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Derslik 203: Operations Research I (3. Sınıf, Prof. Dr. Murat KOCAMAZ)
-Derslik 104: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
+          <t>Derslik 101: Vestel İşletmecilik Seminerleri I (4. Sınıf, Prof. Dr. G. Nazan GÜNAY)
+Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Haluk SOYUER)
+Derslik 103: Kariyer Planlama (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
+Derslik 104: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 105: Endüstriyel Pazarlama (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. Keti VENTURA)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Derslik 104: Global Marketing (Çift) (4. Sınıf, Prof. Dr. Keti VENTURA)
-Derslik 205: Consumer Behavior (Çift) (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
-Derslik 209: Yönetim Muhasebesi (3. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)</t>
+          <t>Derslik 101: Uluslararası Finansman (Muhasebe ve Finansman İ.Ö. Tezsiz, Araş. Gör. Dr. Özgür BABACAN)
+Derslik 102: Enformetri (3. Sınıf, Doç. Dr. Haydar YALÇIN)
+Derslik 103: Türk Dili I (1. Sınıf, Öğretmen 4)
+Derslik 104: Yönetim Geliştirme (3. Sınıf, Prof. Dr. Derya İLİC)
+Derslik 105: Muhasebe II (Tasfiye) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Derslik 111: Matematik-I (Tek) (1. Sınıf, Öğretmen 1)
-Derslik 205: Business I (Tasfiye) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
-Derslik 109: Araştırma Yöntemleri (Tek) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)</t>
+          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
+Derslik 102: Girişimcilik ve KOBİ Yönetimi (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
+Derslik 103: Vadeli İşlem Piyasaları (Muhasebe ve Finansman İ.Ö. Tezsiz, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
+Derslik 104: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Haluk SOYUER)</t>
         </is>
       </c>
     </row>
@@ -593,30 +628,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Derslik 111: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf, Öğretmen 5)
-Derslik 110: Marketing Management I (2. Sınıf, Prof. Dr. G. Nazan GÜNAY)
-Derslik 201: Human Resources Management (4. Sınıf, Prof. Dr. Burak ÇAPRAZ)</t>
+          <t>Derslik 101: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf, Doç. Dr. Aydın KOÇAK)
+Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Murat KOCAMAZ)
+Derslik 103: Retailing I (4. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
+Derslik 104: Lojistik ve Tedarik Zincirinde Güncel Konular (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Burcu ARACIOĞLU)
+Derslik 105: Financial Management I (3. Sınıf, Prof. Dr. Dilek DEMİRHAN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Derslik 103: Consumer Behavior (Tek) (3. Sınıf, Prof. Dr. Ayla Özhan DEDEOĞLU)
-Derslik 109: Business (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
-Derslik 204: Bilgi Yönetimi (3. Sınıf, Doç. Dr. İnanç KABASAKAL)</t>
+          <t>Derslik 101: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf, Prof. Dr. Türker SUSMUŞ)
+Derslik 102: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf, Öğretmen 5)
+Derslik 103: Ticaret Hukuku (İşletme İ.Ö. Tezsiz, Doç. Dr. Sema AYDIN)
+Derslik 104: Human Resources Management (4. Sınıf, Prof. Dr. Burak ÇAPRAZ)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Derslik 201: Operations Management I (2. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 104: System Analysis and Design (4. Sınıf, Doç. Dr. U. Gökay ÇİÇEKLİ)
-Derslik 210: Enformetri (3. Sınıf, Doç. Dr. Haydar YALÇIN)</t>
+          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Burak ÇAPRAZ)
+Derslik 102: Bilgi Yönetimi (3. Sınıf, Doç. Dr. İnanç KABASAKAL)
+Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) (0. Sınıf, Doç. Dr. Sema AYDIN)
+Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Haluk SOYUER)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Derslik 101: Management Consultancy (3. Sınıf, Prof. Dr. Derya İLİC)
-Derslik 104: Organizational Behavior (Çift) (2. Sınıf, Dr. Öğr. Üyesi Hakan ERKAL)
-Derslik 301: Introduction to Business (Örgün + İ.Ö) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)</t>
+          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Derya İLİC)
+Derslik 102: Organizational Behavior (Çift) (2. Sınıf, Dr. Öğr. Üyesi Hakan ERKAL)
+Derslik 103: Global Marketing (Tek) (4. Sınıf, Prof. Dr. Aykan CANDEMİR)
+Derslik 104: Operations Research I (3. Sınıf, Prof. Dr. Murat KOCAMAZ)
+Derslik 105: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
         </is>
       </c>
     </row>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -1,37 +1,255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Genel Ders Programı" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>09:00-12:00</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>Salı</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>Derslik 103: Yatırım Yönetimi (3. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
+Derslik 104: Sermaye Piyasaları ve Menkul Kıymetler Analizi (Muhasebe ve Finansman İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 110: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
+Derslik 202: Stok Yönetimi (Üretim Yönetimi Tezli) - Doç. Dr. Aydın KOÇAK
+Derslik 204: Örgüt Sosyolojisi (Yönetim Bilimi ve Organizasyon Tezli) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: Örgütsel Davranış (İşletme Tezli) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210: System Analysis and Design (4. Sınıf) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 302: Türk Dili I (1. Sınıf) - ÖĞRETMEN 4</t>
+  </si>
+  <si>
+    <t>Derslik 102: Pazarlama Yönetimi (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Keti VENTURA
+Derslik 104: Üretim İşlemler Stratejisi (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Haluk SOYUER
+Derslik 111: Yönetim Muhasebesi (2. Sınıf) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
+Derslik 203: Değişim Yönetimi ve Yönetim Danışmanlığı (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. Derya İLİC
+Derslik 204: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208: E-Pazarlama (İşletme Tezli) - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 101: Ticaret Hukuku (İşletme İ.Ö. Tezsiz) - Doç. Dr. Sema AYDIN
+Derslik 103: Matematik-I (Tek) (1. Sınıf) - ÖĞRETMEN 1
+Derslik 201: Lojistik ve Tedarik Zincirinde Güncel Konular (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202: İleri Örgütsel Davranış (Yönetim ve Organizasyon Doktora) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: İşletme Hukuku (3. Sınıf) - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Pazarlama Kuramı (İşletme Doktora) - Prof. Dr. G. Nazan GÜNAY
+Derslik 301: Üretim Çizelgeleme (İşletme Tezli) - Prof. Dr. Murat KOCAMAZ
+Derslik 302: Örgütler ve Yönetim (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Sürdürülebilir Pazarlama (3. Sınıf) - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 202: Ticaret Hukuku (Tasfiye) (0. Sınıf) - Doç. Dr. Sema AYDIN
+Derslik 203: Pazarlamada Güncel Konular (İşletme Tezli) - Prof. Dr. Keti VENTURA
+Derslik 208: İş Analitiğinde Sayısal Yöntemler (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. İnanç KABASAKAL
+Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik (Üretim Yönetimi Tezli) - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Stratejik Stok Yönetimi (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Doç. Dr. Aydın KOÇAK
+Derslik 204: Matematik-I (Çift) (1. Sınıf) - ÖĞRETMEN 2
+Derslik 205: Yönetim Geliştirme (3. Sınıf) - Prof. Dr. Derya İLİC
+Derslik 211: E-Pazarlama (Pazarlama Tezli) - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 303: Pazarlama Yönetimi (İşletme Tezli) - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 103: Enformetri (3. Sınıf) - Doç. Dr. Haydar YALÇIN
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Örgüt Sosyolojisi (İşletme Tezli) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Marketing Management I (2. Sınıf) - Prof. Dr. G. Nazan GÜNAY
+Derslik 210: Üretimde Yenilik ve Teknoloji Yönetimi (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Prof. Dr. Haluk SOYUER
+Derslik 211: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz) - Prof. Dr. Dilek DEMİRHAN
+Derslik 302: Finansal Muhasebe (Muhasebe ve Finansman İ.Ö. Tezsiz) - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Teknoloji ve Sanayi Dinamikleri (3. Sınıf) - Prof. Dr. Haluk SOYUER
+Derslik 108: Tüketici Davranışları (İşletme Tezli) - Prof. Dr. G. Nazan GÜNAY
+Derslik 204: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Stratejik Finans Yönetimi (Muhasebe ve Finansman İ.Ö. Tezsiz) - Prof. Dr. Dilek DEMİRHAN
+Derslik 210: Endüstriyel Pazarlama (Pazarlama Tezli) - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Organizational Behavior (Çift) (2. Sınıf) - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Introduction to Microeconomics (1. Sınıf) - ÖĞRETMEN 3
+Derslik 110: Retailing I (4. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202: Vadeli İşlem Piyasaları (Muhasebe ve Finansman İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 203: Tüketici Davranışları (Pazarlama Tezli) - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Stratejik Yönetimde Güncel Konular (Yönetim ve Organizasyon Doktora) - Prof. Dr. Burak ÇAPRAZ
+Derslik 209: Stok Yönetimi (İşletme Tezli) - Doç. Dr. Aydın KOÇAK
+Derslik 302: İnsan Kaynakları Yönetimi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303: Consumer Behavior (Tek) (3. Sınıf) - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Vestel İşletmecilik Seminerleri I (4. Sınıf) - Prof. Dr. G. Nazan GÜNAY
+Derslik 109: Yönetim Bilişim Sistemleri (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Proje Yönetimi (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. Aydın KOÇAK
+Derslik 210: Stratejik Pazarlama Yönetimi (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 211: Girişimcilik ve KOBİ Yönetimi (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 302: Örgütsel Davranış (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf) - Prof. Dr. Türker SUSMUŞ
+Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf) - ÖĞRETMEN 5
+Derslik 202: Operations Management I (2. Sınıf) - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik (İşletme Tezli) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 202: Uluslararası Finansman (Muhasebe ve Finansman İ.Ö. Tezsiz) - Araş. Gör. Dr. Özgür BABACAN
+Derslik 203: Pazarlamada Güncel Konular (Pazarlama Tezli) - Prof. Dr. Keti VENTURA
+Derslik 205: Business I (Tasfiye) (0. Sınıf) - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 208: Bilgi Yönetimi (3. Sınıf) - Doç. Dr. İnanç KABASAKAL
+Derslik 303: Perakendecilik (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102: Üretim ve İşlemler Yönetimi (İşletme Tezli) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: Kurumsal Koçluk ve Mentorluk (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: Araştırma Yöntemleri (Tek) (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 209: Endüstriyel Pazarlama (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Keti VENTURA
+Derslik 211: Hizmet Pazarlaması (Pazarlama Tezli) - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 303: Veri Odaklı Üretim Planlama Stratejileri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. Burak ÇAPRAZ
+Derslik 105: Consumer Behavior (Çift) (3. Sınıf) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 108: Hizmet Pazarlaması (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Aykan CANDEMİR
+Derslik 109: Seminer (Üretim Yönetimi ve Sayısal Yöntemler Tezli) - Prof. Dr. Haluk SOYUER
+Derslik 201: Modelleme ve Optimizasyon (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: İşletmeye Giriş (0. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 301: Yönetimde Güncel Yaklaşımlar (İşletme Tezli) - Dr. Öğr. Üyesi Hakan ERKAL</t>
+  </si>
+  <si>
+    <t>Derslik 103: Hizmet Pazarlaması (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Aykan CANDEMİR
+Derslik 104: Yönetimde Güncel Yaklaşımlar (Yönetim Bilimi ve Organizasyon Tezli) - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 105: Global Marketing (Çift) (4. Sınıf) - Prof. Dr. Keti VENTURA
+Derslik 108: Ağ Modelleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Murat KOCAMAZ
+Derslik 111: Kariyer Planlama (1. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205: Örgütler ve Yönetim (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Prof. Dr. Derya İLİC
+Derslik 209: Stratejik Yatırım Kararları ve Planlama (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Organizational Behavior (Tek) (2. Sınıf) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik (Yönetim ve Organizasyon Doktora) - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 302: Endüstriyel Pazarlama (İşletme Tezli) - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 303: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf) - Doç. Dr. Aydın KOÇAK</t>
+  </si>
+  <si>
+    <t>Derslik 102: Business (1. Sınıf) - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 103: Üretim Çizelgeleme (Üretim Yönetimi Tezli) - Prof. Dr. Murat KOCAMAZ
+Derslik 111: Muhasebe I (2. Sınıf) - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204: Reklamcılık Yönetimi (3. Sınıf) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 208: Pazarlama Yönetimi (Pazarlama Tezli) - Prof. Dr. Aykan CANDEMİR
+Derslik 209: Teknoloji Yönetiminin Esasları (İşletme Tezli) - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 109: Akıllı Karar Modelleri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Hizmet Pazarlaması (İşletme Tezli) - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 208: Financial Management I (3. Sınıf) - Prof. Dr. Dilek DEMİRHAN
+Derslik 303: Tüketici Davranışları A (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. G. Nazan GÜNAY</t>
+  </si>
+  <si>
+    <t>Derslik 103: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Haluk SOYUER
+Derslik 110: İleri Üretim Çizelgeleme (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Murat KOCAMAZ
+Derslik 111: Sosyoloji (1. Sınıf) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: Yönetimin Felsefi Temelleri (Yönetim ve Organizasyon Doktora) - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203: Borçlar Hukuku (3. Sınıf) - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 204: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz) - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Tüketici Davranışları B (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz) - Prof. Dr. G. Nazan GÜNAY
+Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik (İşletme Tezli) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik (Muhasebe ve Finansman İ.Ö. Tezsiz) - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 111: Operations Research I (3. Sınıf) - Prof. Dr. Murat KOCAMAZ
+Derslik 203: İleri Örgüt Sosyolojisi (Yönetim ve Organizasyon Doktora) - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Mali Tablolar Analizi (3. Sınıf) - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 211: Örgütsel Davranış (Yönetim Bilimi ve Organizasyon Tezli) - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Dijital Dönüşümün Yönetimi (İşletme Tezli) - Doç. Dr. Haydar YALÇIN</t>
+  </si>
+  <si>
+    <t>Derslik 101: Yatırım Analizi ve Portföy Yönetimi (İşletme Tezli) - Araş. Gör. Dr. Özgür BABACAN
+Derslik 103: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar (Yönetim ve Organizasyon Doktora) - Prof. Dr. Derya İLİC
+Derslik 108: Hukukun Temel Kavramları (Örgün + İ.Ö.) (1. Sınıf) - Doç. Dr. Sema AYDIN
+Derslik 111: Muhasebe II (Tasfiye) (0. Sınıf) - Prof. Dr. Türker SUSMUŞ
+Derslik 202: Araştırma Yöntemleri (Çift) (3. Sınıf) - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 205: Yönetim Atölyesi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz) - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Prof. Dr. Haluk SOYUER
+Derslik 211: Global Marketing (Tek) (4. Sınıf) - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 109: Introduction to Business (Örgün + İ.Ö) (0. Sınıf) - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik (Üretim Yönetimi ve Sayısal Yöntemler Doktora) - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Malzeme ve Stok Yönetimi (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz) - Doç. Dr. Aydın KOÇAK
+Derslik 203: Human Resources Management (4. Sınıf) - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Management Consultancy (3. Sınıf) - Prof. Dr. Derya İLİC
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik (Pazarlama Tezli) - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 210: İşlemler Yönetimi (Uzaktan Öğretim İşletme Tezsiz) - Prof. Dr. Haluk SOYUER
+Derslik 211: İstatistik I (2. Sınıf) - Doç. Dr. İnanç KABASAKAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +264,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,248 +583,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="5" width="85.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>09:00-12:00</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>13:00-16:00</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>16:00-19:00</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>19:00-21:00</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Pazartesi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Derslik 101: Muhasebe I (2. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 102: İnsan Kaynakları Yönetimi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
-Derslik 103: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
-Derslik 105: Stratejik Yatırım Kararları ve Planlama (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 104: Sürdürülebilir Pazarlama (3. Sınıf, Prof. Dr. İpek KAZANÇOĞLU)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Derslik 101: Marketing Management I (2. Sınıf, Prof. Dr. G. Nazan GÜNAY)
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Doç. Dr. Haydar YALÇIN)
-Derslik 103: Ticaret Hukuku (İşletme İ.Ö. Tezsiz, Dr. Öğr. Üyesi Esin GÜRBÜZ)
-Derslik 104: Consumer Behavior (Tek) (3. Sınıf, Prof. Dr. Ayla Özhan DEDEOĞLU)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Derslik 101: Sosyoloji (1. Sınıf, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
-Derslik 102: İş Analitiğinde Sayısal Yöntemler (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. İnanç KABASAKAL)
-Derslik 103: Yönetim Muhasebesi (3. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
-Derslik 104: Organizational Behavior (Tek) (2. Sınıf, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
-Derslik 105: Ağ Modelleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Murat KOCAMAZ)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Derslik 101: Tüketici Davranışları (A) (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. G. Nazan GÜNAY)
-Derslik 102: Akıllı Karar Modelleri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
-Derslik 103: Ticaret Hukuku (Tasfiye) (0. Sınıf, Doç. Dr. Sema AYDIN)
-Derslik 104: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz, Prof. Dr. Dilek DEMİRHAN)
-Derslik 105: Finansal Muhasebe (Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Türker SUSMUŞ)</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Salı</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Derslik 101: Yatırım Yönetimi (3. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
-Derslik 103: Pazarlama Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Keti VENTURA)
-Derslik 104: Perakendecilik (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. İpek KAZANÇOĞLU)
-Derslik 105: Veri Odaklı Üretim Planlama Stratejileri (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Murat KOCAMAZ)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Derslik 101: Teknoloji ve Sanayi Dinamikleri (3. Sınıf, Prof. Dr. Haluk SOYUER)
-Derslik 102: System Analysis and Design (4. Sınıf, Doç. Dr. U. Gökay ÇİÇEKLİ)
-Derslik 103: Yönetim Atölyesi (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Dr. Öğr. Üyesi Hakan ERKAL)
-Derslik 104: Stratejik Pazarlama Yönetimi (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. Ayla Özhan DEDEOĞLU)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Derslik 101: Malzeme ve Stok Yönetimi (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Doç. Dr. Aydın KOÇAK)
-Derslik 102: Consumer Behavior (Çift) (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
-Derslik 103: Mali Tablolar Analizi (4. Sınıf, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
-Derslik 104: Örgütsel Davranış (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
-Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik (Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Burcu ARACIOĞLU)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Derslik 101: Tüketici Davranışları (B) (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. G. Nazan GÜNAY)
-Derslik 102: Araştırma Yöntemleri (Çift) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
-Derslik 103: Matematik-I (Tek) (1. Sınıf, Öğretmen 1)
-Derslik 104: Stratejik İşletme Finansı (İşletme İ.Ö. Tezsiz, Prof. Dr. Türker SUSMUŞ)</t>
-        </is>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Çarşamba</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Derslik 101: Business I (Tasfiye) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
-Derslik 102: Reklamcılık Yönetimi (3. Sınıf, Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN)
-Derslik 103: Business (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
-Derslik 104: Kurumsal Koçluk ve Mentorluk (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ)
-Derslik 105: Global Marketing (Çift) (4. Sınıf, Prof. Dr. Keti VENTURA)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Derslik 101: Introduction to Microeconomics (1. Sınıf, Öğretmen 3)
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik (İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Burak ÇAPRAZ)
-Derslik 103: İşletme Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
-Derslik 104: Operations Management I (2. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 105: Muhasebe I (Örgün + İ.Ö.) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Derslik 101: İşletmeye Giriş (0. Sınıf, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Doç. Dr. U. Gökay ÇİÇEKLİ)
-Derslik 103: Sermaye Piyasaları ve Menkul Kıymetler Analizi (Muhasebe ve Finansman İ.Ö. Tezsiz, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
-Derslik 210: Management Consultancy (3. Sınıf, Prof. Dr. Derya İLİC)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Derslik 101: Proje Yönetimi (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Doç. Dr. Aydın KOÇAK)
-Derslik 102: Araştırma Yöntemleri (Tek) (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
-Derslik 103: Matematik-I (Çift) (1. Sınıf, Öğretmen 2)
-Derslik 104: Stratejik Finans Yönetimi (Muhasebe ve Finansman İ.Ö. Tezsiz, Prof. Dr. Dilek DEMİRHAN)</t>
-        </is>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Perşembe</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Derslik 101: Introduction to Business (Örgün + İ.Ö) (0. Sınıf, Araş. Gör. Dr. Begüm KANAT TİRYAKİ)
-Derslik 102: İstatistik I (2. Sınıf, Doç. Dr. İnanç KABASAKAL)
-Derslik 103: Borçlar Hukuku (3. Sınıf, Dr. Öğr. Üyesi Esin GÜRBÜZ)
-Derslik 104: Hizmet Pazarlaması (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Aykan CANDEMİR)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Derslik 101: Vestel İşletmecilik Seminerleri I (4. Sınıf, Prof. Dr. G. Nazan GÜNAY)
-Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Haluk SOYUER)
-Derslik 103: Kariyer Planlama (1. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
-Derslik 104: Küresel Tedarik Zinciri ve Lojistik (3. Sınıf, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 105: Endüstriyel Pazarlama (Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Prof. Dr. Keti VENTURA)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Derslik 101: Uluslararası Finansman (Muhasebe ve Finansman İ.Ö. Tezsiz, Araş. Gör. Dr. Özgür BABACAN)
-Derslik 102: Enformetri (3. Sınıf, Doç. Dr. Haydar YALÇIN)
-Derslik 103: Türk Dili I (1. Sınıf, Öğretmen 4)
-Derslik 104: Yönetim Geliştirme (3. Sınıf, Prof. Dr. Derya İLİC)
-Derslik 105: Muhasebe II (Tasfiye) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Doç. Dr. Burcu ŞENTÜRK YILDIZ)
-Derslik 102: Girişimcilik ve KOBİ Yönetimi (3. Sınıf, Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU)
-Derslik 103: Vadeli İşlem Piyasaları (Muhasebe ve Finansman İ.Ö. Tezsiz, Dr. Öğr. Üyesi Ş. Sertaç ÇAKI)
-Derslik 104: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Haluk SOYUER)</t>
-        </is>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Cuma</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Derslik 101: E-İş ve Kurumsal Kaynak Planlama (3. Sınıf, Doç. Dr. Aydın KOÇAK)
-Derslik 102: İşlemler Yönetimi (İşletme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Murat KOCAMAZ)
-Derslik 103: Retailing I (4. Sınıf, Dr. Öğr. Üyesi Miray BAYBARS)
-Derslik 104: Lojistik ve Tedarik Zincirinde Güncel Konular (Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz, Prof. Dr. Burcu ARACIOĞLU)
-Derslik 105: Financial Management I (3. Sınıf, Prof. Dr. Dilek DEMİRHAN)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Derslik 101: Uygulamalı Finansal Piyasa İşlemleri (3. Sınıf, Prof. Dr. Türker SUSMUŞ)
-Derslik 102: Atatürk İlkeleri ve İnkılap Tarihi I (1. Sınıf, Öğretmen 5)
-Derslik 103: Ticaret Hukuku (İşletme İ.Ö. Tezsiz, Doç. Dr. Sema AYDIN)
-Derslik 104: Human Resources Management (4. Sınıf, Prof. Dr. Burak ÇAPRAZ)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Burak ÇAPRAZ)
-Derslik 102: Bilgi Yönetimi (3. Sınıf, Doç. Dr. İnanç KABASAKAL)
-Derslik 103: Hukukun Temel Kavramları (Örgün + İ.Ö.) (0. Sınıf, Doç. Dr. Sema AYDIN)
-Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme (Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz, Prof. Dr. Haluk SOYUER)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Derslik 101: Örgütler ve Yönetim (İşletme İ.Ö. Tezsiz, İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz, Prof. Dr. Derya İLİC)
-Derslik 102: Organizational Behavior (Çift) (2. Sınıf, Dr. Öğr. Üyesi Hakan ERKAL)
-Derslik 103: Global Marketing (Tek) (4. Sınıf, Prof. Dr. Aykan CANDEMİR)
-Derslik 104: Operations Research I (3. Sınıf, Prof. Dr. Murat KOCAMAZ)
-Derslik 105: Uygulamalı Finansal Piyasa İşlemleri (Örgün) (0. Sınıf, Prof. Dr. Türker SUSMUŞ)</t>
-        </is>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>